--- a/Mifos Automation Excels/Client/4035-CREATE-ACTIVEPERSON-CLOSECLENT-WITH-REASON.xlsx
+++ b/Mifos Automation Excels/Client/4035-CREATE-ACTIVEPERSON-CLOSECLENT-WITH-REASON.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>office</t>
   </si>
@@ -53,58 +53,25 @@
     <t>Click</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>middlename</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>dateofbirth</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>clienttype</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>clientclassification</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>legalform</t>
-  </si>
-  <si>
-    <t>PERSON</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>AssignStaff</t>
-  </si>
-  <si>
     <t>clickonsubmit</t>
   </si>
   <si>
     <t>click</t>
   </si>
   <si>
-    <t>checked</t>
-  </si>
-  <si>
-    <t>activationdate</t>
+    <t>New Client</t>
+  </si>
+  <si>
+    <t>CloseClient</t>
+  </si>
+  <si>
+    <t>Closuredate</t>
+  </si>
+  <si>
+    <t>Closurereason</t>
+  </si>
+  <si>
+    <t>Inactive</t>
   </si>
 </sst>
 </file>
@@ -112,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -168,13 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -184,10 +147,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -503,130 +466,76 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9">
-        <v>32906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="9">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +549,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -650,18 +559,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
